--- a/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
+++ b/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
@@ -1146,10 +1146,10 @@
   <dimension ref="A1:XEJ83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X86" sqref="X86"/>
+      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
+++ b/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="StandardandProductized" sheetId="1" r:id="rId1"/>
+    <sheet name="ContainerNewandModify" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$F$1:$F$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StandardandProductized!$F$1:$F$82</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="209">
   <si>
     <t>Product</t>
   </si>
@@ -616,6 +617,54 @@
   <si>
     <t>Promotions</t>
   </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Execution Required (Yes/No)</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>MRC</t>
+  </si>
+  <si>
+    <t>IP Guardian</t>
+  </si>
+  <si>
+    <t>Dark Fibre</t>
+  </si>
+  <si>
+    <t>Ethernet Line</t>
+  </si>
+  <si>
+    <t>Container Type</t>
+  </si>
+  <si>
+    <t>Approval  Level</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>New Container</t>
+  </si>
+  <si>
+    <t>Modify Container</t>
+  </si>
+  <si>
+    <t>QTO CPQ supported products- New Container</t>
+  </si>
+  <si>
+    <t>QTO CPQ and non CPQ supported  products- New Container</t>
+  </si>
+  <si>
+    <t>QTO CPQ supported products- Container Modify</t>
+  </si>
+  <si>
+    <t>QTO CPQ and non CPQ supported  products- Container Modify</t>
+  </si>
 </sst>
 </file>
 
@@ -684,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -718,6 +767,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -726,7 +801,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -829,14 +904,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,13 +1267,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEJ83"/>
+  <dimension ref="A1:XEJ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F72" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N72" sqref="N72"/>
+      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,40 +1310,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1318,24 +1442,24 @@
       <c r="AF2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="40" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1382,7 +1506,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="42" t="s">
         <v>179</v>
       </c>
       <c r="AC3" s="22" t="s">
@@ -1399,13 +1523,13 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1576,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="38"/>
+      <c r="AB4" s="42"/>
       <c r="AC4" s="22" t="s">
         <v>39</v>
       </c>
@@ -1467,13 +1591,13 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1640,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="38"/>
+      <c r="AB5" s="42"/>
       <c r="AC5" s="22" t="s">
         <v>39</v>
       </c>
@@ -1531,13 +1655,13 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="15" t="s">
         <v>118</v>
       </c>
@@ -1586,7 +1710,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="38"/>
+      <c r="AB6" s="42"/>
       <c r="AC6" s="22" t="s">
         <v>39</v>
       </c>
@@ -1601,19 +1725,19 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1660,7 +1784,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="38" t="s">
+      <c r="AB7" s="42" t="s">
         <v>179</v>
       </c>
       <c r="AC7" s="22" t="s">
@@ -1677,13 +1801,13 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1852,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="38"/>
+      <c r="AB8" s="42"/>
       <c r="AC8" s="22" t="s">
         <v>39</v>
       </c>
@@ -1743,13 +1867,13 @@
       </c>
     </row>
     <row r="9" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1918,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="38"/>
+      <c r="AB9" s="42"/>
       <c r="AC9" s="22" t="s">
         <v>39</v>
       </c>
@@ -1809,13 +1933,13 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1984,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="38"/>
+      <c r="AB10" s="42"/>
       <c r="AC10" s="22" t="s">
         <v>39</v>
       </c>
@@ -1875,19 +1999,19 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -1936,7 +2060,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="38" t="s">
+      <c r="AB11" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="22" t="s">
@@ -1953,13 +2077,13 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
@@ -2006,7 +2130,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="38"/>
+      <c r="AB12" s="42"/>
       <c r="AC12" s="22" t="s">
         <v>39</v>
       </c>
@@ -2021,13 +2145,13 @@
       </c>
     </row>
     <row r="13" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="15" t="s">
         <v>31</v>
       </c>
@@ -2074,7 +2198,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="38"/>
+      <c r="AB13" s="42"/>
       <c r="AC13" s="22" t="s">
         <v>39</v>
       </c>
@@ -2089,13 +2213,13 @@
       </c>
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
@@ -2142,7 +2266,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="38"/>
+      <c r="AB14" s="42"/>
       <c r="AC14" s="22" t="s">
         <v>39</v>
       </c>
@@ -2157,19 +2281,19 @@
       </c>
     </row>
     <row r="15" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -2214,7 +2338,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="38" t="s">
+      <c r="AB15" s="42" t="s">
         <v>179</v>
       </c>
       <c r="AC15" s="22" t="s">
@@ -2231,13 +2355,13 @@
       </c>
     </row>
     <row r="16" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
@@ -2280,7 +2404,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="38"/>
+      <c r="AB16" s="42"/>
       <c r="AC16" s="22" t="s">
         <v>39</v>
       </c>
@@ -2295,19 +2419,19 @@
       </c>
     </row>
     <row r="17" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="15" t="s">
@@ -2358,7 +2482,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="38" t="s">
+      <c r="AB17" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC17" s="22" t="s">
@@ -2375,13 +2499,13 @@
       </c>
     </row>
     <row r="18" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="15" t="s">
         <v>118</v>
       </c>
@@ -2430,7 +2554,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="38"/>
+      <c r="AB18" s="42"/>
       <c r="AC18" s="22" t="s">
         <v>39</v>
       </c>
@@ -2445,13 +2569,13 @@
       </c>
     </row>
     <row r="19" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2500,7 +2624,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="38"/>
+      <c r="AB19" s="42"/>
       <c r="AC19" s="22" t="s">
         <v>39</v>
       </c>
@@ -2515,13 +2639,13 @@
       </c>
     </row>
     <row r="20" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="15" t="s">
         <v>118</v>
       </c>
@@ -2570,7 +2694,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="38"/>
+      <c r="AB20" s="42"/>
       <c r="AC20" s="22" t="s">
         <v>39</v>
       </c>
@@ -2585,19 +2709,19 @@
       </c>
     </row>
     <row r="21" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -2640,7 +2764,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="38" t="s">
+      <c r="AB21" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC21" s="22" t="s">
@@ -2657,13 +2781,13 @@
       </c>
     </row>
     <row r="22" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="15" t="s">
         <v>118</v>
       </c>
@@ -2712,7 +2836,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="38"/>
+      <c r="AB22" s="42"/>
       <c r="AC22" s="22" t="s">
         <v>39</v>
       </c>
@@ -2727,13 +2851,13 @@
       </c>
     </row>
     <row r="23" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="15" t="s">
         <v>118</v>
       </c>
@@ -2782,7 +2906,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="38"/>
+      <c r="AB23" s="42"/>
       <c r="AC23" s="22" t="s">
         <v>39</v>
       </c>
@@ -2797,13 +2921,13 @@
       </c>
     </row>
     <row r="24" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="15" t="s">
         <v>118</v>
       </c>
@@ -2852,7 +2976,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="38"/>
+      <c r="AB24" s="42"/>
       <c r="AC24" s="22" t="s">
         <v>39</v>
       </c>
@@ -2867,13 +2991,13 @@
       </c>
     </row>
     <row r="25" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="15" t="s">
         <v>118</v>
       </c>
@@ -2922,7 +3046,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="38"/>
+      <c r="AB25" s="42"/>
       <c r="AC25" s="22" t="s">
         <v>39</v>
       </c>
@@ -2937,19 +3061,19 @@
       </c>
     </row>
     <row r="26" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="42">
         <v>3795623</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -2996,7 +3120,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="38" t="s">
+      <c r="AB26" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC26" s="22" t="s">
@@ -3013,13 +3137,13 @@
       </c>
     </row>
     <row r="27" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="15" t="s">
         <v>31</v>
       </c>
@@ -3066,7 +3190,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="38"/>
+      <c r="AB27" s="42"/>
       <c r="AC27" s="22" t="s">
         <v>39</v>
       </c>
@@ -3081,13 +3205,13 @@
       </c>
     </row>
     <row r="28" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="15" t="s">
         <v>118</v>
       </c>
@@ -3136,7 +3260,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="38"/>
+      <c r="AB28" s="42"/>
       <c r="AC28" s="22" t="s">
         <v>39</v>
       </c>
@@ -3151,13 +3275,13 @@
       </c>
     </row>
     <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="15" t="s">
         <v>27</v>
       </c>
@@ -3200,7 +3324,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="38"/>
+      <c r="AB29" s="42"/>
       <c r="AC29" s="22" t="s">
         <v>39</v>
       </c>
@@ -3215,13 +3339,13 @@
       </c>
     </row>
     <row r="30" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="15" t="s">
         <v>118</v>
       </c>
@@ -3270,7 +3394,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="38"/>
+      <c r="AB30" s="42"/>
       <c r="AC30" s="22" t="s">
         <v>39</v>
       </c>
@@ -3685,19 +3809,19 @@
       </c>
     </row>
     <row r="36" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="15" t="s">
@@ -3744,7 +3868,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="38" t="s">
+      <c r="AB36" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC36" s="22" t="s">
@@ -3761,13 +3885,13 @@
       </c>
     </row>
     <row r="37" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="15" t="s">
         <v>27</v>
       </c>
@@ -3810,7 +3934,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="38"/>
+      <c r="AB37" s="42"/>
       <c r="AC37" s="22" t="s">
         <v>39</v>
       </c>
@@ -4293,19 +4417,19 @@
       </c>
     </row>
     <row r="44" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="15" t="s">
@@ -4354,7 +4478,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
-      <c r="AB44" s="38" t="s">
+      <c r="AB44" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC44" s="22" t="s">
@@ -4371,13 +4495,13 @@
       </c>
     </row>
     <row r="45" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="15" t="s">
         <v>7</v>
       </c>
@@ -4424,7 +4548,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
-      <c r="AB45" s="38"/>
+      <c r="AB45" s="42"/>
       <c r="AC45" s="22" t="s">
         <v>39</v>
       </c>
@@ -4439,13 +4563,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="15" t="s">
         <v>7</v>
       </c>
@@ -4492,7 +4616,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
-      <c r="AB46" s="38"/>
+      <c r="AB46" s="42"/>
       <c r="AC46" s="22" t="s">
         <v>39</v>
       </c>
@@ -4507,13 +4631,13 @@
       </c>
     </row>
     <row r="47" spans="1:32" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="39"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="15" t="s">
         <v>7</v>
       </c>
@@ -4560,7 +4684,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
-      <c r="AB47" s="38"/>
+      <c r="AB47" s="42"/>
       <c r="AC47" s="22" t="s">
         <v>39</v>
       </c>
@@ -4575,13 +4699,13 @@
       </c>
     </row>
     <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="15" t="s">
         <v>7</v>
       </c>
@@ -4628,7 +4752,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
-      <c r="AB48" s="38"/>
+      <c r="AB48" s="42"/>
       <c r="AC48" s="22" t="s">
         <v>39</v>
       </c>
@@ -4721,19 +4845,19 @@
       </c>
     </row>
     <row r="50" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="43">
         <v>3795623</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -4784,7 +4908,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
-      <c r="AB50" s="38" t="s">
+      <c r="AB50" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC50" s="22" t="s">
@@ -4801,13 +4925,13 @@
       </c>
     </row>
     <row r="51" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="15" t="s">
         <v>7</v>
       </c>
@@ -4856,7 +4980,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
-      <c r="AB51" s="38"/>
+      <c r="AB51" s="42"/>
       <c r="AC51" s="22" t="s">
         <v>39</v>
       </c>
@@ -4871,13 +4995,13 @@
       </c>
     </row>
     <row r="52" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
@@ -4926,7 +5050,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
-      <c r="AB52" s="38"/>
+      <c r="AB52" s="42"/>
       <c r="AC52" s="22" t="s">
         <v>39</v>
       </c>
@@ -4941,13 +5065,13 @@
       </c>
     </row>
     <row r="53" spans="1:16364" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="15" t="s">
         <v>7</v>
       </c>
@@ -4996,7 +5120,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
-      <c r="AB53" s="38"/>
+      <c r="AB53" s="42"/>
       <c r="AC53" s="22" t="s">
         <v>39</v>
       </c>
@@ -5011,19 +5135,19 @@
       </c>
     </row>
     <row r="54" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="43">
         <v>3795623</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -5074,7 +5198,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
-      <c r="AB54" s="38" t="s">
+      <c r="AB54" s="42" t="s">
         <v>179</v>
       </c>
       <c r="AC54" s="22" t="s">
@@ -5091,13 +5215,13 @@
       </c>
     </row>
     <row r="55" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="15" t="s">
         <v>7</v>
       </c>
@@ -5146,7 +5270,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
-      <c r="AB55" s="38"/>
+      <c r="AB55" s="42"/>
       <c r="AC55" s="22" t="s">
         <v>39</v>
       </c>
@@ -5161,13 +5285,13 @@
       </c>
     </row>
     <row r="56" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="15" t="s">
         <v>7</v>
       </c>
@@ -5216,7 +5340,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
-      <c r="AB56" s="38"/>
+      <c r="AB56" s="42"/>
       <c r="AC56" s="22" t="s">
         <v>39</v>
       </c>
@@ -5231,13 +5355,13 @@
       </c>
     </row>
     <row r="57" spans="1:16364" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="15" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5410,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
-      <c r="AB57" s="38"/>
+      <c r="AB57" s="42"/>
       <c r="AC57" s="22" t="s">
         <v>39</v>
       </c>
@@ -5301,13 +5425,13 @@
       </c>
     </row>
     <row r="58" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="15" t="s">
         <v>7</v>
       </c>
@@ -5356,7 +5480,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
-      <c r="AB58" s="38"/>
+      <c r="AB58" s="42"/>
       <c r="AC58" s="22" t="s">
         <v>39</v>
       </c>
@@ -22163,19 +22287,19 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="42" t="s">
         <v>46</v>
       </c>
       <c r="F65" s="15" t="s">
@@ -22239,13 +22363,13 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="38"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="42"/>
       <c r="F66" s="15" t="s">
         <v>7</v>
       </c>
@@ -22307,13 +22431,13 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="38"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="15" t="s">
         <v>31</v>
       </c>
@@ -22377,13 +22501,13 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="38"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="42"/>
       <c r="F68" s="15" t="s">
         <v>31</v>
       </c>
@@ -22531,19 +22655,19 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -22596,7 +22720,7 @@
       <c r="AA70" s="15">
         <v>18</v>
       </c>
-      <c r="AB70" s="38" t="s">
+      <c r="AB70" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC70" s="22" t="s">
@@ -22613,13 +22737,13 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="15" t="s">
         <v>27</v>
       </c>
@@ -22662,7 +22786,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
       <c r="AA71" s="15"/>
-      <c r="AB71" s="38"/>
+      <c r="AB71" s="42"/>
       <c r="AC71" s="22" t="s">
         <v>39</v>
       </c>
@@ -22677,19 +22801,19 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="43" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -22742,7 +22866,7 @@
       <c r="AA72" s="15">
         <v>18</v>
       </c>
-      <c r="AB72" s="38" t="s">
+      <c r="AB72" s="42" t="s">
         <v>44</v>
       </c>
       <c r="AC72" s="22" t="s">
@@ -22759,13 +22883,13 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="15" t="s">
         <v>27</v>
       </c>
@@ -22808,7 +22932,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
-      <c r="AB73" s="38"/>
+      <c r="AB73" s="42"/>
       <c r="AC73" s="22" t="s">
         <v>39</v>
       </c>
@@ -23525,7 +23649,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>50</v>
@@ -23533,9 +23657,7 @@
       <c r="D83" s="34">
         <v>3795623</v>
       </c>
-      <c r="E83" s="35" t="s">
-        <v>46</v>
-      </c>
+      <c r="E83" s="35"/>
       <c r="F83" s="15" t="s">
         <v>27</v>
       </c>
@@ -23594,43 +23716,171 @@
         <v>42</v>
       </c>
     </row>
+    <row r="84" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J84" s="19"/>
+      <c r="K84" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="15"/>
+      <c r="M84" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="38">
+        <v>123566534</v>
+      </c>
+      <c r="W84" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X84" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC84" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD84" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE84" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF84" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="38">
+        <v>3795623</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J85" s="19"/>
+      <c r="K85" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="15"/>
+      <c r="M85" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N85" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="38">
+        <v>123566534</v>
+      </c>
+      <c r="W85" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X85" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC85" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD85" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE85" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF85" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="AB72:AB73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="AB70:AB71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AB17:AB20"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="AB26:AB30"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="AB7:AB10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="AB3:AB6"/>
     <mergeCell ref="AB36:AB37"/>
     <mergeCell ref="AB50:AB53"/>
     <mergeCell ref="AB54:AB58"/>
@@ -23647,25 +23897,41 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="AB44:AB48"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="AB7:AB10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AB17:AB20"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="AB26:AB30"/>
+    <mergeCell ref="AB72:AB73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="AB70:AB71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC7" r:id="rId1"/>
@@ -23748,11 +24014,683 @@
     <hyperlink ref="AC5" r:id="rId78"/>
     <hyperlink ref="AC6" r:id="rId79"/>
     <hyperlink ref="AC83" r:id="rId80"/>
+    <hyperlink ref="AC84" r:id="rId81"/>
+    <hyperlink ref="AC85" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId81"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId83"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId82"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId84"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+    </row>
+    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54">
+        <v>3795623</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="53">
+        <v>123566534</v>
+      </c>
+      <c r="W3" s="53">
+        <v>4534534534</v>
+      </c>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54">
+        <v>3795623</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="53">
+        <v>123566534</v>
+      </c>
+      <c r="W5" s="53">
+        <v>4534534534</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54">
+        <v>3795623</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="53">
+        <v>123566534</v>
+      </c>
+      <c r="W8" s="53">
+        <v>4534534534</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF8" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54">
+        <v>3795623</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="53">
+        <v>123566534</v>
+      </c>
+      <c r="W10" s="53">
+        <v>4534534534</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC10" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AD3:AD4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AC5" r:id="rId2"/>
+    <hyperlink ref="AC8" r:id="rId3"/>
+    <hyperlink ref="AC10" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
+++ b/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StandardandProductized" sheetId="1" r:id="rId1"/>
     <sheet name="ContainerNewandModify" sheetId="2" r:id="rId2"/>
+    <sheet name="Bulk" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StandardandProductized!$F$1:$F$82</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="210">
   <si>
     <t>Product</t>
   </si>
@@ -618,9 +619,6 @@
     <t>Promotions</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Execution Required (Yes/No)</t>
   </si>
   <si>
@@ -664,6 +662,12 @@
   </si>
   <si>
     <t>QTO CPQ and non CPQ supported  products- Container Modify</t>
+  </si>
+  <si>
+    <t>Line Level &gt; Percentage Off</t>
+  </si>
+  <si>
+    <t>Bulk Upload</t>
   </si>
 </sst>
 </file>
@@ -801,7 +805,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -908,22 +912,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -936,21 +925,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -960,6 +949,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1270,10 +1277,10 @@
   <dimension ref="A1:XEJ85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,40 +1317,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
     </row>
     <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1447,19 +1454,19 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1506,7 +1513,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="47" t="s">
         <v>179</v>
       </c>
       <c r="AC3" s="22" t="s">
@@ -1523,13 +1530,13 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +1583,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="42"/>
+      <c r="AB4" s="47"/>
       <c r="AC4" s="22" t="s">
         <v>39</v>
       </c>
@@ -1591,13 +1598,13 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1647,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="42"/>
+      <c r="AB5" s="47"/>
       <c r="AC5" s="22" t="s">
         <v>39</v>
       </c>
@@ -1655,13 +1662,13 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="15" t="s">
         <v>118</v>
       </c>
@@ -1710,7 +1717,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="42"/>
+      <c r="AB6" s="47"/>
       <c r="AC6" s="22" t="s">
         <v>39</v>
       </c>
@@ -1725,19 +1732,19 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1784,7 +1791,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="42" t="s">
+      <c r="AB7" s="47" t="s">
         <v>179</v>
       </c>
       <c r="AC7" s="22" t="s">
@@ -1801,13 +1808,13 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1859,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="42"/>
+      <c r="AB8" s="47"/>
       <c r="AC8" s="22" t="s">
         <v>39</v>
       </c>
@@ -1867,13 +1874,13 @@
       </c>
     </row>
     <row r="9" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1925,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="42"/>
+      <c r="AB9" s="47"/>
       <c r="AC9" s="22" t="s">
         <v>39</v>
       </c>
@@ -1933,13 +1940,13 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +1991,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="42"/>
+      <c r="AB10" s="47"/>
       <c r="AC10" s="22" t="s">
         <v>39</v>
       </c>
@@ -1999,19 +2006,19 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -2060,7 +2067,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="42" t="s">
+      <c r="AB11" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="22" t="s">
@@ -2077,13 +2084,13 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
@@ -2130,7 +2137,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="42"/>
+      <c r="AB12" s="47"/>
       <c r="AC12" s="22" t="s">
         <v>39</v>
       </c>
@@ -2145,13 +2152,13 @@
       </c>
     </row>
     <row r="13" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="15" t="s">
         <v>31</v>
       </c>
@@ -2198,7 +2205,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="42"/>
+      <c r="AB13" s="47"/>
       <c r="AC13" s="22" t="s">
         <v>39</v>
       </c>
@@ -2213,13 +2220,13 @@
       </c>
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
@@ -2266,7 +2273,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="42"/>
+      <c r="AB14" s="47"/>
       <c r="AC14" s="22" t="s">
         <v>39</v>
       </c>
@@ -2281,19 +2288,19 @@
       </c>
     </row>
     <row r="15" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -2338,7 +2345,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="42" t="s">
+      <c r="AB15" s="47" t="s">
         <v>179</v>
       </c>
       <c r="AC15" s="22" t="s">
@@ -2355,13 +2362,13 @@
       </c>
     </row>
     <row r="16" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
@@ -2404,7 +2411,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="42"/>
+      <c r="AB16" s="47"/>
       <c r="AC16" s="22" t="s">
         <v>39</v>
       </c>
@@ -2419,19 +2426,19 @@
       </c>
     </row>
     <row r="17" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="15" t="s">
@@ -2482,7 +2489,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="42" t="s">
+      <c r="AB17" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC17" s="22" t="s">
@@ -2499,13 +2506,13 @@
       </c>
     </row>
     <row r="18" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="15" t="s">
         <v>118</v>
       </c>
@@ -2554,7 +2561,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="42"/>
+      <c r="AB18" s="47"/>
       <c r="AC18" s="22" t="s">
         <v>39</v>
       </c>
@@ -2569,13 +2576,13 @@
       </c>
     </row>
     <row r="19" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2624,7 +2631,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="42"/>
+      <c r="AB19" s="47"/>
       <c r="AC19" s="22" t="s">
         <v>39</v>
       </c>
@@ -2639,13 +2646,13 @@
       </c>
     </row>
     <row r="20" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="15" t="s">
         <v>118</v>
       </c>
@@ -2694,7 +2701,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="42"/>
+      <c r="AB20" s="47"/>
       <c r="AC20" s="22" t="s">
         <v>39</v>
       </c>
@@ -2709,19 +2716,19 @@
       </c>
     </row>
     <row r="21" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -2764,7 +2771,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="42" t="s">
+      <c r="AB21" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC21" s="22" t="s">
@@ -2781,13 +2788,13 @@
       </c>
     </row>
     <row r="22" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="15" t="s">
         <v>118</v>
       </c>
@@ -2836,7 +2843,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="42"/>
+      <c r="AB22" s="47"/>
       <c r="AC22" s="22" t="s">
         <v>39</v>
       </c>
@@ -2851,13 +2858,13 @@
       </c>
     </row>
     <row r="23" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="15" t="s">
         <v>118</v>
       </c>
@@ -2906,7 +2913,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="42"/>
+      <c r="AB23" s="47"/>
       <c r="AC23" s="22" t="s">
         <v>39</v>
       </c>
@@ -2921,13 +2928,13 @@
       </c>
     </row>
     <row r="24" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="15" t="s">
         <v>118</v>
       </c>
@@ -2976,7 +2983,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="42"/>
+      <c r="AB24" s="47"/>
       <c r="AC24" s="22" t="s">
         <v>39</v>
       </c>
@@ -2991,13 +2998,13 @@
       </c>
     </row>
     <row r="25" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="15" t="s">
         <v>118</v>
       </c>
@@ -3046,7 +3053,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="42"/>
+      <c r="AB25" s="47"/>
       <c r="AC25" s="22" t="s">
         <v>39</v>
       </c>
@@ -3061,19 +3068,19 @@
       </c>
     </row>
     <row r="26" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="47">
         <v>3795623</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -3120,7 +3127,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="42" t="s">
+      <c r="AB26" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC26" s="22" t="s">
@@ -3137,13 +3144,13 @@
       </c>
     </row>
     <row r="27" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="15" t="s">
         <v>31</v>
       </c>
@@ -3190,7 +3197,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="42"/>
+      <c r="AB27" s="47"/>
       <c r="AC27" s="22" t="s">
         <v>39</v>
       </c>
@@ -3205,13 +3212,13 @@
       </c>
     </row>
     <row r="28" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="15" t="s">
         <v>118</v>
       </c>
@@ -3260,7 +3267,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="42"/>
+      <c r="AB28" s="47"/>
       <c r="AC28" s="22" t="s">
         <v>39</v>
       </c>
@@ -3275,13 +3282,13 @@
       </c>
     </row>
     <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="15" t="s">
         <v>27</v>
       </c>
@@ -3324,7 +3331,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="42"/>
+      <c r="AB29" s="47"/>
       <c r="AC29" s="22" t="s">
         <v>39</v>
       </c>
@@ -3339,13 +3346,13 @@
       </c>
     </row>
     <row r="30" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="15" t="s">
         <v>118</v>
       </c>
@@ -3394,7 +3401,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="42"/>
+      <c r="AB30" s="47"/>
       <c r="AC30" s="22" t="s">
         <v>39</v>
       </c>
@@ -3809,19 +3816,19 @@
       </c>
     </row>
     <row r="36" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="15" t="s">
@@ -3868,7 +3875,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="42" t="s">
+      <c r="AB36" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC36" s="22" t="s">
@@ -3885,13 +3892,13 @@
       </c>
     </row>
     <row r="37" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="15" t="s">
         <v>27</v>
       </c>
@@ -3934,7 +3941,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="42"/>
+      <c r="AB37" s="47"/>
       <c r="AC37" s="22" t="s">
         <v>39</v>
       </c>
@@ -4417,19 +4424,19 @@
       </c>
     </row>
     <row r="44" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="15" t="s">
@@ -4478,7 +4485,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
-      <c r="AB44" s="42" t="s">
+      <c r="AB44" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC44" s="22" t="s">
@@ -4495,13 +4502,13 @@
       </c>
     </row>
     <row r="45" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="15" t="s">
         <v>7</v>
       </c>
@@ -4548,7 +4555,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
-      <c r="AB45" s="42"/>
+      <c r="AB45" s="47"/>
       <c r="AC45" s="22" t="s">
         <v>39</v>
       </c>
@@ -4563,13 +4570,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="15" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4623,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
-      <c r="AB46" s="42"/>
+      <c r="AB46" s="47"/>
       <c r="AC46" s="22" t="s">
         <v>39</v>
       </c>
@@ -4631,13 +4638,13 @@
       </c>
     </row>
     <row r="47" spans="1:32" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="43"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="15" t="s">
         <v>7</v>
       </c>
@@ -4684,7 +4691,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
-      <c r="AB47" s="42"/>
+      <c r="AB47" s="47"/>
       <c r="AC47" s="22" t="s">
         <v>39</v>
       </c>
@@ -4699,13 +4706,13 @@
       </c>
     </row>
     <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="15" t="s">
         <v>7</v>
       </c>
@@ -4752,7 +4759,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
-      <c r="AB48" s="42"/>
+      <c r="AB48" s="47"/>
       <c r="AC48" s="22" t="s">
         <v>39</v>
       </c>
@@ -4845,19 +4852,19 @@
       </c>
     </row>
     <row r="50" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="48">
         <v>3795623</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -4908,7 +4915,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
-      <c r="AB50" s="42" t="s">
+      <c r="AB50" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC50" s="22" t="s">
@@ -4925,13 +4932,13 @@
       </c>
     </row>
     <row r="51" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="15" t="s">
         <v>7</v>
       </c>
@@ -4980,7 +4987,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
-      <c r="AB51" s="42"/>
+      <c r="AB51" s="47"/>
       <c r="AC51" s="22" t="s">
         <v>39</v>
       </c>
@@ -4995,13 +5002,13 @@
       </c>
     </row>
     <row r="52" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
@@ -5050,7 +5057,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
-      <c r="AB52" s="42"/>
+      <c r="AB52" s="47"/>
       <c r="AC52" s="22" t="s">
         <v>39</v>
       </c>
@@ -5065,13 +5072,13 @@
       </c>
     </row>
     <row r="53" spans="1:16364" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="15" t="s">
         <v>7</v>
       </c>
@@ -5120,7 +5127,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
-      <c r="AB53" s="42"/>
+      <c r="AB53" s="47"/>
       <c r="AC53" s="22" t="s">
         <v>39</v>
       </c>
@@ -5135,19 +5142,19 @@
       </c>
     </row>
     <row r="54" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="48">
         <v>3795623</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -5198,7 +5205,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
-      <c r="AB54" s="42" t="s">
+      <c r="AB54" s="47" t="s">
         <v>179</v>
       </c>
       <c r="AC54" s="22" t="s">
@@ -5215,13 +5222,13 @@
       </c>
     </row>
     <row r="55" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="15" t="s">
         <v>7</v>
       </c>
@@ -5270,7 +5277,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
-      <c r="AB55" s="42"/>
+      <c r="AB55" s="47"/>
       <c r="AC55" s="22" t="s">
         <v>39</v>
       </c>
@@ -5285,13 +5292,13 @@
       </c>
     </row>
     <row r="56" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="15" t="s">
         <v>7</v>
       </c>
@@ -5340,7 +5347,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
-      <c r="AB56" s="42"/>
+      <c r="AB56" s="47"/>
       <c r="AC56" s="22" t="s">
         <v>39</v>
       </c>
@@ -5355,13 +5362,13 @@
       </c>
     </row>
     <row r="57" spans="1:16364" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="15" t="s">
         <v>7</v>
       </c>
@@ -5410,7 +5417,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
-      <c r="AB57" s="42"/>
+      <c r="AB57" s="47"/>
       <c r="AC57" s="22" t="s">
         <v>39</v>
       </c>
@@ -5425,13 +5432,13 @@
       </c>
     </row>
     <row r="58" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="15" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +5487,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
-      <c r="AB58" s="42"/>
+      <c r="AB58" s="47"/>
       <c r="AC58" s="22" t="s">
         <v>39</v>
       </c>
@@ -22287,19 +22294,19 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="47" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="47" t="s">
         <v>46</v>
       </c>
       <c r="F65" s="15" t="s">
@@ -22363,13 +22370,13 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="42"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="15" t="s">
         <v>7</v>
       </c>
@@ -22431,13 +22438,13 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="42"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="15" t="s">
         <v>31</v>
       </c>
@@ -22501,13 +22508,13 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="42"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="15" t="s">
         <v>31</v>
       </c>
@@ -22655,19 +22662,19 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -22720,7 +22727,7 @@
       <c r="AA70" s="15">
         <v>18</v>
       </c>
-      <c r="AB70" s="42" t="s">
+      <c r="AB70" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC70" s="22" t="s">
@@ -22737,13 +22744,13 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="15" t="s">
         <v>27</v>
       </c>
@@ -22786,7 +22793,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
       <c r="AA71" s="15"/>
-      <c r="AB71" s="42"/>
+      <c r="AB71" s="47"/>
       <c r="AC71" s="22" t="s">
         <v>39</v>
       </c>
@@ -22801,19 +22808,19 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="48" t="s">
         <v>46</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -22866,7 +22873,7 @@
       <c r="AA72" s="15">
         <v>18</v>
       </c>
-      <c r="AB72" s="42" t="s">
+      <c r="AB72" s="47" t="s">
         <v>44</v>
       </c>
       <c r="AC72" s="22" t="s">
@@ -22883,13 +22890,13 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
       <c r="F73" s="15" t="s">
         <v>27</v>
       </c>
@@ -22932,7 +22939,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
-      <c r="AB73" s="42"/>
+      <c r="AB73" s="47"/>
       <c r="AC73" s="22" t="s">
         <v>39</v>
       </c>
@@ -23649,7 +23656,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>50</v>
@@ -23721,7 +23728,7 @@
         <v>67</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>50</v>
@@ -23839,11 +23846,17 @@
         <v>4534534534</v>
       </c>
       <c r="X85" s="15">
-        <v>130245</v>
-      </c>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="15"/>
-      <c r="AA85" s="15"/>
+        <v>166152</v>
+      </c>
+      <c r="Y85" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z85" s="15">
+        <v>40</v>
+      </c>
+      <c r="AA85" s="15">
+        <v>40</v>
+      </c>
       <c r="AB85" s="38" t="s">
         <v>44</v>
       </c>
@@ -23862,25 +23875,41 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="AB7:AB10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="AB72:AB73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="AB70:AB71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AB17:AB20"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="AB26:AB30"/>
     <mergeCell ref="AB36:AB37"/>
     <mergeCell ref="AB50:AB53"/>
     <mergeCell ref="AB54:AB58"/>
@@ -23897,41 +23926,25 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="AB44:AB48"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AB17:AB20"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="AB26:AB30"/>
-    <mergeCell ref="AB72:AB73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="AB70:AB71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="AB7:AB10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC7" r:id="rId1"/>
@@ -24029,7 +24042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -24042,158 +24055,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
     </row>
     <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="50" t="s">
+      <c r="U2" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="U2" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="X2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="50" t="s">
+      <c r="AF2" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54">
+      <c r="C3" s="55"/>
+      <c r="D3" s="58">
         <v>3795623</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="59" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
@@ -24209,42 +24222,42 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="53">
+      <c r="V3" s="55">
         <v>123566534</v>
       </c>
-      <c r="W3" s="53">
+      <c r="W3" s="55">
         <v>4534534534</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="53" t="s">
+      <c r="AB3" s="55" t="s">
         <v>44</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="55" t="s">
+      <c r="AD3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="55" t="s">
+      <c r="AE3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="55" t="s">
+      <c r="AF3" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="58"/>
+        <v>197</v>
+      </c>
+      <c r="G4" s="53"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -24259,37 +24272,37 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="53"/>
+      <c r="AB4" s="55"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54">
+      <c r="C5" s="55"/>
+      <c r="D5" s="58">
         <v>3795623</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="55" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -24305,42 +24318,42 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="53">
+      <c r="V5" s="55">
         <v>123566534</v>
       </c>
-      <c r="W5" s="53">
+      <c r="W5" s="55">
         <v>4534534534</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="53" t="s">
+      <c r="AB5" s="55" t="s">
         <v>179</v>
       </c>
       <c r="AC5" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="55" t="s">
+      <c r="AD5" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="55" t="s">
+      <c r="AE5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="55" t="s">
+      <c r="AF5" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="59"/>
+        <v>197</v>
+      </c>
+      <c r="G6" s="54"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -24355,28 +24368,28 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="53"/>
+      <c r="AB6" s="55"/>
       <c r="AC6" s="56"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="58"/>
+        <v>198</v>
+      </c>
+      <c r="G7" s="53"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -24391,37 +24404,37 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="53"/>
+      <c r="AB7" s="55"/>
       <c r="AC7" s="56"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54">
+      <c r="C8" s="55"/>
+      <c r="D8" s="58">
         <v>3795623</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="57"/>
+        <v>196</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="52"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -24435,43 +24448,43 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="53">
+      <c r="V8" s="55">
         <v>123566534</v>
       </c>
-      <c r="W8" s="53">
+      <c r="W8" s="55">
         <v>4534534534</v>
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="53" t="s">
+      <c r="AB8" s="55" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AD8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AE8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AF8" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+        <v>197</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -24485,38 +24498,38 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="53"/>
+      <c r="AB9" s="55"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54">
+      <c r="C10" s="55"/>
+      <c r="D10" s="58">
         <v>3795623</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>201</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -24531,43 +24544,43 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="53">
+      <c r="V10" s="55">
         <v>123566534</v>
       </c>
-      <c r="W10" s="53">
+      <c r="W10" s="55">
         <v>4534534534</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="53" t="s">
+      <c r="AB10" s="55" t="s">
         <v>179</v>
       </c>
       <c r="AC10" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" s="55" t="s">
+      <c r="AD10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AE10" s="55" t="s">
+      <c r="AE10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="55" t="s">
+      <c r="AF10" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+        <v>197</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -24581,29 +24594,29 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="53"/>
+      <c r="AB11" s="55"/>
       <c r="AC11" s="56"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="53"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+        <v>198</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -24617,43 +24630,40 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="53"/>
+      <c r="AB12" s="55"/>
       <c r="AC12" s="56"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="AB5:AB7"/>
     <mergeCell ref="AC5:AC7"/>
     <mergeCell ref="AD5:AD7"/>
     <mergeCell ref="AE5:AE7"/>
@@ -24664,26 +24674,29 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
@@ -24693,4 +24706,694 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="47">
+        <v>3795623</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="41">
+        <v>123566534</v>
+      </c>
+      <c r="W3" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X3" s="15">
+        <v>120696</v>
+      </c>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="41">
+        <v>123566534</v>
+      </c>
+      <c r="W4" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X4" s="15">
+        <v>120696</v>
+      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="41">
+        <v>123566534</v>
+      </c>
+      <c r="W5" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X5" s="15">
+        <v>120696</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="15">
+        <v>123456</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="41">
+        <v>123566534</v>
+      </c>
+      <c r="W12" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X12" s="15">
+        <v>120696</v>
+      </c>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="AB3:AB12"/>
+    <mergeCell ref="A1:AF1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AC4" r:id="rId2"/>
+    <hyperlink ref="AC5" r:id="rId3"/>
+    <hyperlink ref="AC12" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
+++ b/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="210">
   <si>
     <t>Product</t>
   </si>
@@ -933,11 +933,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,22 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1277,10 @@
   <dimension ref="A1:XEJ85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomRight" activeCell="X84" sqref="X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,40 +1317,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
     </row>
     <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -4424,7 +4424,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="49" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="48" t="s">
@@ -4502,7 +4502,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="48"/>
       <c r="C45" s="15" t="s">
         <v>50</v>
@@ -4570,7 +4570,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="48"/>
       <c r="C46" s="15" t="s">
         <v>53</v>
@@ -4638,7 +4638,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="48"/>
       <c r="C47" s="15" t="s">
         <v>83</v>
@@ -4706,7 +4706,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="48"/>
       <c r="C48" s="15" t="s">
         <v>83</v>
@@ -23875,41 +23875,25 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="AB72:AB73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="AB70:AB71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AB17:AB20"/>
-    <mergeCell ref="AB21:AB25"/>
-    <mergeCell ref="AB26:AB30"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="AB7:AB10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="AB3:AB6"/>
     <mergeCell ref="AB36:AB37"/>
     <mergeCell ref="AB50:AB53"/>
     <mergeCell ref="AB54:AB58"/>
@@ -23926,25 +23910,41 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="AB44:AB48"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="AB7:AB10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AB17:AB20"/>
+    <mergeCell ref="AB21:AB25"/>
+    <mergeCell ref="AB26:AB30"/>
+    <mergeCell ref="AB72:AB73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="AB70:AB71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC7" r:id="rId1"/>
@@ -24055,40 +24055,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
     </row>
     <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -24189,23 +24189,23 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="58">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52">
         <v>3795623</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="57" t="s">
         <v>202</v>
       </c>
       <c r="H3" s="1"/>
@@ -24222,42 +24222,42 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="55">
+      <c r="V3" s="51">
         <v>123566534</v>
       </c>
-      <c r="W3" s="55">
+      <c r="W3" s="51">
         <v>4534534534</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="55" t="s">
+      <c r="AB3" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="51" t="s">
+      <c r="AD3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="51" t="s">
+      <c r="AF3" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -24272,36 +24272,36 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="55"/>
+      <c r="AB4" s="51"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="58">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52">
         <v>3795623</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="51" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="57" t="s">
         <v>202</v>
       </c>
       <c r="H5" s="1"/>
@@ -24318,42 +24318,42 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="55">
+      <c r="V5" s="51">
         <v>123566534</v>
       </c>
-      <c r="W5" s="55">
+      <c r="W5" s="51">
         <v>4534534534</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="55" t="s">
+      <c r="AB5" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AC5" s="56" t="s">
+      <c r="AC5" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="51" t="s">
+      <c r="AD5" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="51" t="s">
+      <c r="AE5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="51" t="s">
+      <c r="AF5" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -24368,28 +24368,28 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -24404,37 +24404,37 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="58">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52">
         <v>3795623</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -24448,43 +24448,43 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="55">
+      <c r="V8" s="51">
         <v>123566534</v>
       </c>
-      <c r="W8" s="55">
+      <c r="W8" s="51">
         <v>4534534534</v>
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="55" t="s">
+      <c r="AB8" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="51" t="s">
+      <c r="AD8" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="51" t="s">
+      <c r="AE8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AF8" s="51" t="s">
+      <c r="AF8" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -24498,37 +24498,37 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="55"/>
+      <c r="AB9" s="51"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="58">
+      <c r="C10" s="51"/>
+      <c r="D10" s="52">
         <v>3795623</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="57" t="s">
         <v>201</v>
       </c>
       <c r="I10" s="1"/>
@@ -24544,43 +24544,43 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="55">
+      <c r="V10" s="51">
         <v>123566534</v>
       </c>
-      <c r="W10" s="55">
+      <c r="W10" s="51">
         <v>4534534534</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="55" t="s">
+      <c r="AB10" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AC10" s="56" t="s">
+      <c r="AC10" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" s="51" t="s">
+      <c r="AD10" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AE10" s="51" t="s">
+      <c r="AE10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="51" t="s">
+      <c r="AF10" s="56" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -24594,29 +24594,29 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -24630,20 +24630,60 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="V10:V12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -24656,47 +24696,7 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
@@ -24710,10 +24710,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24726,43 +24726,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -24876,8 +24876,8 @@
       <c r="D3" s="47">
         <v>3795623</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>46</v>
+      <c r="E3" s="48">
+        <v>269559</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>7</v>
@@ -24918,7 +24918,7 @@
         <v>4534534534</v>
       </c>
       <c r="X3" s="15">
-        <v>120696</v>
+        <v>130245</v>
       </c>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
@@ -24989,7 +24989,7 @@
         <v>4534534534</v>
       </c>
       <c r="X4" s="15">
-        <v>120696</v>
+        <v>130245</v>
       </c>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
@@ -25054,7 +25054,7 @@
         <v>4534534534</v>
       </c>
       <c r="X5" s="15">
-        <v>120696</v>
+        <v>130245</v>
       </c>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -25102,7 +25102,9 @@
       <c r="U6" s="15"/>
       <c r="V6" s="41"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="X6" s="15">
+        <v>130245</v>
+      </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
@@ -25141,7 +25143,9 @@
       <c r="U7" s="15"/>
       <c r="V7" s="41"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
+      <c r="X7" s="15">
+        <v>130245</v>
+      </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
@@ -25180,7 +25184,9 @@
       <c r="U8" s="15"/>
       <c r="V8" s="41"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="X8" s="15">
+        <v>130245</v>
+      </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
@@ -25219,7 +25225,9 @@
       <c r="U9" s="15"/>
       <c r="V9" s="41"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
+      <c r="X9" s="15">
+        <v>130245</v>
+      </c>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
@@ -25258,7 +25266,9 @@
       <c r="U10" s="15"/>
       <c r="V10" s="41"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
+      <c r="X10" s="15">
+        <v>130245</v>
+      </c>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
@@ -25269,130 +25279,19 @@
       <c r="AF10" s="21"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="15">
-        <v>123456</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="41">
-        <v>123566534</v>
-      </c>
-      <c r="W12" s="15">
-        <v>4534534534</v>
-      </c>
-      <c r="X12" s="15">
-        <v>120696</v>
-      </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG12" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="AB3:AB12"/>
     <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="AB3:AB10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
     <hyperlink ref="AC4" r:id="rId2"/>
     <hyperlink ref="AC5" r:id="rId3"/>
-    <hyperlink ref="AC12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
+++ b/src/Data/AutomationInputSheet_Phase 2ARegressionJetUI.XLSX
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="StandardandProductized" sheetId="1" r:id="rId1"/>
     <sheet name="ContainerNewandModify" sheetId="2" r:id="rId2"/>
     <sheet name="Bulk" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">StandardandProductized!$F$1:$F$82</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="218">
   <si>
     <t>Product</t>
   </si>
@@ -664,10 +665,34 @@
     <t>QTO CPQ and non CPQ supported  products- Container Modify</t>
   </si>
   <si>
-    <t>Line Level &gt; Percentage Off</t>
+    <t>Bulk Upload - Standard Journey</t>
   </si>
   <si>
-    <t>Bulk Upload</t>
+    <t>Bulk Upload - DP Journey</t>
+  </si>
+  <si>
+    <t>Bulk Upload- POA Journey</t>
+  </si>
+  <si>
+    <t>Bulk Upload- Be Spoke</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Bulk_Upload_Template_V1.5.1.xlsm</t>
+  </si>
+  <si>
+    <t>Bulk_Upload_Template_V1.5.2.xlsm</t>
+  </si>
+  <si>
+    <t>Bulk_Upload_Template_V1.5.3.xlsm</t>
+  </si>
+  <si>
+    <t>Bulk_Upload_Template_V1.5.4.xlsm</t>
+  </si>
+  <si>
+    <t>BeSpoke</t>
   </si>
 </sst>
 </file>
@@ -805,7 +830,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -925,6 +950,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -968,6 +1005,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1277,10 +1332,10 @@
   <dimension ref="A1:XEJ85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="X78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X84" sqref="X84"/>
+      <selection pane="bottomRight" sqref="A1:AG85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,40 +1372,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
     </row>
     <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -1454,19 +1509,19 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -1513,7 +1568,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="51" t="s">
         <v>179</v>
       </c>
       <c r="AC3" s="22" t="s">
@@ -1530,13 +1585,13 @@
       </c>
     </row>
     <row r="4" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
@@ -1583,7 +1638,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="47"/>
+      <c r="AB4" s="51"/>
       <c r="AC4" s="22" t="s">
         <v>39</v>
       </c>
@@ -1598,13 +1653,13 @@
       </c>
     </row>
     <row r="5" spans="1:33" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1702,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="47"/>
+      <c r="AB5" s="51"/>
       <c r="AC5" s="22" t="s">
         <v>39</v>
       </c>
@@ -1662,13 +1717,13 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="15" t="s">
         <v>118</v>
       </c>
@@ -1717,7 +1772,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="47"/>
+      <c r="AB6" s="51"/>
       <c r="AC6" s="22" t="s">
         <v>39</v>
       </c>
@@ -1732,19 +1787,19 @@
       </c>
     </row>
     <row r="7" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -1791,7 +1846,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="47" t="s">
+      <c r="AB7" s="51" t="s">
         <v>179</v>
       </c>
       <c r="AC7" s="22" t="s">
@@ -1808,13 +1863,13 @@
       </c>
     </row>
     <row r="8" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1914,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="47"/>
+      <c r="AB8" s="51"/>
       <c r="AC8" s="22" t="s">
         <v>39</v>
       </c>
@@ -1874,13 +1929,13 @@
       </c>
     </row>
     <row r="9" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1925,7 +1980,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="47"/>
+      <c r="AB9" s="51"/>
       <c r="AC9" s="22" t="s">
         <v>39</v>
       </c>
@@ -1940,13 +1995,13 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2046,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="47"/>
+      <c r="AB10" s="51"/>
       <c r="AC10" s="22" t="s">
         <v>39</v>
       </c>
@@ -2006,19 +2061,19 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -2067,7 +2122,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="47" t="s">
+      <c r="AB11" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="22" t="s">
@@ -2084,13 +2139,13 @@
       </c>
     </row>
     <row r="12" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
@@ -2137,7 +2192,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="47"/>
+      <c r="AB12" s="51"/>
       <c r="AC12" s="22" t="s">
         <v>39</v>
       </c>
@@ -2152,13 +2207,13 @@
       </c>
     </row>
     <row r="13" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="15" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2260,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="47"/>
+      <c r="AB13" s="51"/>
       <c r="AC13" s="22" t="s">
         <v>39</v>
       </c>
@@ -2220,13 +2275,13 @@
       </c>
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
@@ -2273,7 +2328,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="47"/>
+      <c r="AB14" s="51"/>
       <c r="AC14" s="22" t="s">
         <v>39</v>
       </c>
@@ -2288,19 +2343,19 @@
       </c>
     </row>
     <row r="15" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -2345,7 +2400,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="47" t="s">
+      <c r="AB15" s="51" t="s">
         <v>179</v>
       </c>
       <c r="AC15" s="22" t="s">
@@ -2362,13 +2417,13 @@
       </c>
     </row>
     <row r="16" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="15" t="s">
         <v>27</v>
       </c>
@@ -2411,7 +2466,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="47"/>
+      <c r="AB16" s="51"/>
       <c r="AC16" s="22" t="s">
         <v>39</v>
       </c>
@@ -2426,19 +2481,19 @@
       </c>
     </row>
     <row r="17" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="15" t="s">
@@ -2489,7 +2544,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="47" t="s">
+      <c r="AB17" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC17" s="22" t="s">
@@ -2506,13 +2561,13 @@
       </c>
     </row>
     <row r="18" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="15" t="s">
         <v>118</v>
       </c>
@@ -2561,7 +2616,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="47"/>
+      <c r="AB18" s="51"/>
       <c r="AC18" s="22" t="s">
         <v>39</v>
       </c>
@@ -2576,13 +2631,13 @@
       </c>
     </row>
     <row r="19" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2631,7 +2686,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="47"/>
+      <c r="AB19" s="51"/>
       <c r="AC19" s="22" t="s">
         <v>39</v>
       </c>
@@ -2646,13 +2701,13 @@
       </c>
     </row>
     <row r="20" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="15" t="s">
         <v>118</v>
       </c>
@@ -2701,7 +2756,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="47"/>
+      <c r="AB20" s="51"/>
       <c r="AC20" s="22" t="s">
         <v>39</v>
       </c>
@@ -2716,19 +2771,19 @@
       </c>
     </row>
     <row r="21" spans="1:32" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -2771,7 +2826,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="47" t="s">
+      <c r="AB21" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC21" s="22" t="s">
@@ -2788,13 +2843,13 @@
       </c>
     </row>
     <row r="22" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="15" t="s">
         <v>118</v>
       </c>
@@ -2843,7 +2898,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="47"/>
+      <c r="AB22" s="51"/>
       <c r="AC22" s="22" t="s">
         <v>39</v>
       </c>
@@ -2858,13 +2913,13 @@
       </c>
     </row>
     <row r="23" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="15" t="s">
         <v>118</v>
       </c>
@@ -2913,7 +2968,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="47"/>
+      <c r="AB23" s="51"/>
       <c r="AC23" s="22" t="s">
         <v>39</v>
       </c>
@@ -2928,13 +2983,13 @@
       </c>
     </row>
     <row r="24" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="15" t="s">
         <v>118</v>
       </c>
@@ -2983,7 +3038,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="47"/>
+      <c r="AB24" s="51"/>
       <c r="AC24" s="22" t="s">
         <v>39</v>
       </c>
@@ -2998,13 +3053,13 @@
       </c>
     </row>
     <row r="25" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="15" t="s">
         <v>118</v>
       </c>
@@ -3053,7 +3108,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="47"/>
+      <c r="AB25" s="51"/>
       <c r="AC25" s="22" t="s">
         <v>39</v>
       </c>
@@ -3068,19 +3123,19 @@
       </c>
     </row>
     <row r="26" spans="1:32" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="51">
         <v>3795623</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -3127,7 +3182,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="47" t="s">
+      <c r="AB26" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC26" s="22" t="s">
@@ -3144,13 +3199,13 @@
       </c>
     </row>
     <row r="27" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="15" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3252,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="47"/>
+      <c r="AB27" s="51"/>
       <c r="AC27" s="22" t="s">
         <v>39</v>
       </c>
@@ -3212,13 +3267,13 @@
       </c>
     </row>
     <row r="28" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="15" t="s">
         <v>118</v>
       </c>
@@ -3267,7 +3322,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="47"/>
+      <c r="AB28" s="51"/>
       <c r="AC28" s="22" t="s">
         <v>39</v>
       </c>
@@ -3282,13 +3337,13 @@
       </c>
     </row>
     <row r="29" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="15" t="s">
         <v>27</v>
       </c>
@@ -3331,7 +3386,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="47"/>
+      <c r="AB29" s="51"/>
       <c r="AC29" s="22" t="s">
         <v>39</v>
       </c>
@@ -3346,13 +3401,13 @@
       </c>
     </row>
     <row r="30" spans="1:32" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="15" t="s">
         <v>118</v>
       </c>
@@ -3401,7 +3456,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="47"/>
+      <c r="AB30" s="51"/>
       <c r="AC30" s="22" t="s">
         <v>39</v>
       </c>
@@ -3816,19 +3871,19 @@
       </c>
     </row>
     <row r="36" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="15" t="s">
@@ -3875,7 +3930,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="47" t="s">
+      <c r="AB36" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC36" s="22" t="s">
@@ -3892,13 +3947,13 @@
       </c>
     </row>
     <row r="37" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="15" t="s">
         <v>27</v>
       </c>
@@ -3941,7 +3996,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="47"/>
+      <c r="AB37" s="51"/>
       <c r="AC37" s="22" t="s">
         <v>39</v>
       </c>
@@ -4424,19 +4479,19 @@
       </c>
     </row>
     <row r="44" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="15" t="s">
@@ -4485,7 +4540,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
-      <c r="AB44" s="47" t="s">
+      <c r="AB44" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC44" s="22" t="s">
@@ -4502,13 +4557,13 @@
       </c>
     </row>
     <row r="45" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="15" t="s">
         <v>7</v>
       </c>
@@ -4555,7 +4610,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
-      <c r="AB45" s="47"/>
+      <c r="AB45" s="51"/>
       <c r="AC45" s="22" t="s">
         <v>39</v>
       </c>
@@ -4570,13 +4625,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="15" t="s">
         <v>7</v>
       </c>
@@ -4623,7 +4678,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
-      <c r="AB46" s="47"/>
+      <c r="AB46" s="51"/>
       <c r="AC46" s="22" t="s">
         <v>39</v>
       </c>
@@ -4638,13 +4693,13 @@
       </c>
     </row>
     <row r="47" spans="1:32" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="15" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4746,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
-      <c r="AB47" s="47"/>
+      <c r="AB47" s="51"/>
       <c r="AC47" s="22" t="s">
         <v>39</v>
       </c>
@@ -4706,13 +4761,13 @@
       </c>
     </row>
     <row r="48" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="15" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4814,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
-      <c r="AB48" s="47"/>
+      <c r="AB48" s="51"/>
       <c r="AC48" s="22" t="s">
         <v>39</v>
       </c>
@@ -4852,19 +4907,19 @@
       </c>
     </row>
     <row r="50" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="52">
         <v>3795623</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -4915,7 +4970,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
-      <c r="AB50" s="47" t="s">
+      <c r="AB50" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC50" s="22" t="s">
@@ -4932,13 +4987,13 @@
       </c>
     </row>
     <row r="51" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="15" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +5042,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
-      <c r="AB51" s="47"/>
+      <c r="AB51" s="51"/>
       <c r="AC51" s="22" t="s">
         <v>39</v>
       </c>
@@ -5002,13 +5057,13 @@
       </c>
     </row>
     <row r="52" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
@@ -5057,7 +5112,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
-      <c r="AB52" s="47"/>
+      <c r="AB52" s="51"/>
       <c r="AC52" s="22" t="s">
         <v>39</v>
       </c>
@@ -5072,13 +5127,13 @@
       </c>
     </row>
     <row r="53" spans="1:16364" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="15" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5182,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
-      <c r="AB53" s="47"/>
+      <c r="AB53" s="51"/>
       <c r="AC53" s="22" t="s">
         <v>39</v>
       </c>
@@ -5142,19 +5197,19 @@
       </c>
     </row>
     <row r="54" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="52">
         <v>3795623</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -5205,7 +5260,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
-      <c r="AB54" s="47" t="s">
+      <c r="AB54" s="51" t="s">
         <v>179</v>
       </c>
       <c r="AC54" s="22" t="s">
@@ -5222,13 +5277,13 @@
       </c>
     </row>
     <row r="55" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="15" t="s">
         <v>7</v>
       </c>
@@ -5277,7 +5332,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
-      <c r="AB55" s="47"/>
+      <c r="AB55" s="51"/>
       <c r="AC55" s="22" t="s">
         <v>39</v>
       </c>
@@ -5292,13 +5347,13 @@
       </c>
     </row>
     <row r="56" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="15" t="s">
         <v>7</v>
       </c>
@@ -5347,7 +5402,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
-      <c r="AB56" s="47"/>
+      <c r="AB56" s="51"/>
       <c r="AC56" s="22" t="s">
         <v>39</v>
       </c>
@@ -5362,13 +5417,13 @@
       </c>
     </row>
     <row r="57" spans="1:16364" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="15" t="s">
         <v>7</v>
       </c>
@@ -5417,7 +5472,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
-      <c r="AB57" s="47"/>
+      <c r="AB57" s="51"/>
       <c r="AC57" s="22" t="s">
         <v>39</v>
       </c>
@@ -5432,13 +5487,13 @@
       </c>
     </row>
     <row r="58" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="15" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5542,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
-      <c r="AB58" s="47"/>
+      <c r="AB58" s="51"/>
       <c r="AC58" s="22" t="s">
         <v>39</v>
       </c>
@@ -22294,19 +22349,19 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="51" t="s">
         <v>46</v>
       </c>
       <c r="F65" s="15" t="s">
@@ -22370,13 +22425,13 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="47"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="15" t="s">
         <v>7</v>
       </c>
@@ -22438,13 +22493,13 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="48"/>
-      <c r="E67" s="47"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="15" t="s">
         <v>31</v>
       </c>
@@ -22508,13 +22563,13 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="47"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="15" t="s">
         <v>31</v>
       </c>
@@ -22662,19 +22717,19 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -22727,7 +22782,7 @@
       <c r="AA70" s="15">
         <v>18</v>
       </c>
-      <c r="AB70" s="47" t="s">
+      <c r="AB70" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC70" s="22" t="s">
@@ -22744,13 +22799,13 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="15" t="s">
         <v>27</v>
       </c>
@@ -22793,7 +22848,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
       <c r="AA71" s="15"/>
-      <c r="AB71" s="47"/>
+      <c r="AB71" s="51"/>
       <c r="AC71" s="22" t="s">
         <v>39</v>
       </c>
@@ -22808,19 +22863,19 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
+      <c r="A72" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="52" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -22873,7 +22928,7 @@
       <c r="AA72" s="15">
         <v>18</v>
       </c>
-      <c r="AB72" s="47" t="s">
+      <c r="AB72" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC72" s="22" t="s">
@@ -22890,13 +22945,13 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
       <c r="F73" s="15" t="s">
         <v>27</v>
       </c>
@@ -22939,7 +22994,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
       <c r="AA73" s="15"/>
-      <c r="AB73" s="47"/>
+      <c r="AB73" s="51"/>
       <c r="AC73" s="22" t="s">
         <v>39</v>
       </c>
@@ -23806,8 +23861,8 @@
       <c r="D85" s="38">
         <v>3795623</v>
       </c>
-      <c r="E85" s="39" t="s">
-        <v>46</v>
+      <c r="E85" s="39">
+        <v>269696</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>27</v>
@@ -23848,15 +23903,9 @@
       <c r="X85" s="15">
         <v>166152</v>
       </c>
-      <c r="Y85" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z85" s="15">
-        <v>40</v>
-      </c>
-      <c r="AA85" s="15">
-        <v>40</v>
-      </c>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
       <c r="AB85" s="38" t="s">
         <v>44</v>
       </c>
@@ -24055,40 +24104,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -24189,23 +24238,23 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56">
         <v>3795623</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="59" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="61" t="s">
         <v>202</v>
       </c>
       <c r="H3" s="1"/>
@@ -24222,42 +24271,42 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="51">
+      <c r="V3" s="55">
         <v>123566534</v>
       </c>
-      <c r="W3" s="51">
+      <c r="W3" s="55">
         <v>4534534534</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="51" t="s">
+      <c r="AB3" s="55" t="s">
         <v>44</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="56" t="s">
+      <c r="AD3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="56" t="s">
+      <c r="AE3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AF3" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="55"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -24272,36 +24321,36 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="51"/>
+      <c r="AB4" s="55"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56">
         <v>3795623</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="55" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="61" t="s">
         <v>202</v>
       </c>
       <c r="H5" s="1"/>
@@ -24318,42 +24367,42 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="51">
+      <c r="V5" s="55">
         <v>123566534</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="55">
         <v>4534534534</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="51" t="s">
+      <c r="AB5" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="AC5" s="60" t="s">
+      <c r="AC5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="56" t="s">
+      <c r="AD5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AE5" s="56" t="s">
+      <c r="AE5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="56" t="s">
+      <c r="AF5" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="51"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -24368,28 +24417,28 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -24404,37 +24453,37 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56">
         <v>3795623</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="57"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -24448,43 +24497,43 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="51">
+      <c r="V8" s="55">
         <v>123566534</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="55">
         <v>4534534534</v>
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="51" t="s">
+      <c r="AB8" s="55" t="s">
         <v>44</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD8" s="56" t="s">
+      <c r="AD8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AE8" s="56" t="s">
+      <c r="AE8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AF8" s="56" t="s">
+      <c r="AF8" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -24498,37 +24547,37 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="51"/>
+      <c r="AB9" s="55"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52">
+      <c r="C10" s="55"/>
+      <c r="D10" s="56">
         <v>3795623</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="61" t="s">
         <v>201</v>
       </c>
       <c r="I10" s="1"/>
@@ -24544,43 +24593,43 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="51">
+      <c r="V10" s="55">
         <v>123566534</v>
       </c>
-      <c r="W10" s="51">
+      <c r="W10" s="55">
         <v>4534534534</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="51" t="s">
+      <c r="AB10" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="AC10" s="60" t="s">
+      <c r="AC10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="AD10" s="56" t="s">
+      <c r="AD10" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="AE10" s="56" t="s">
+      <c r="AE10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="56" t="s">
+      <c r="AF10" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -24594,29 +24643,29 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -24630,17 +24679,17 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -24710,10 +24759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24722,44 +24771,47 @@
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="75" x14ac:dyDescent="0.25">
@@ -24788,7 +24840,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>9</v>
@@ -24864,28 +24916,28 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="51">
         <v>3795623</v>
       </c>
-      <c r="E3" s="48">
-        <v>269559</v>
+      <c r="E3" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="19" t="s">
-        <v>40</v>
+      <c r="I3" s="65" t="s">
+        <v>213</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>183</v>
@@ -24923,7 +24975,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="51" t="s">
         <v>44</v>
       </c>
       <c r="AC3" s="22" t="s">
@@ -24941,21 +24993,19 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="I4" s="66"/>
       <c r="J4" s="19" t="s">
         <v>62</v>
       </c>
@@ -24994,7 +25044,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="47"/>
+      <c r="AB4" s="51"/>
       <c r="AC4" s="22" t="s">
         <v>39</v>
       </c>
@@ -25009,22 +25059,20 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
+    <row r="5" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="I5" s="66"/>
       <c r="J5" s="19"/>
       <c r="K5" s="20" t="s">
         <v>22</v>
@@ -25059,7 +25107,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="47"/>
+      <c r="AB5" s="51"/>
       <c r="AC5" s="22" t="s">
         <v>39</v>
       </c>
@@ -25075,19 +25123,19 @@
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
       <c r="L6" s="15"/>
@@ -25108,7 +25156,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="47"/>
+      <c r="AB6" s="51"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
@@ -25116,19 +25164,19 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
       <c r="L7" s="15"/>
@@ -25149,7 +25197,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="47"/>
+      <c r="AB7" s="51"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
@@ -25157,19 +25205,19 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
       <c r="L8" s="15"/>
@@ -25190,7 +25238,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="47"/>
+      <c r="AB8" s="51"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="21"/>
       <c r="AE8" s="21"/>
@@ -25198,19 +25246,19 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
       <c r="L9" s="15"/>
@@ -25231,7 +25279,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="47"/>
+      <c r="AB9" s="51"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
@@ -25239,19 +25287,19 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
       <c r="L10" s="15"/>
@@ -25272,26 +25320,1541 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="47"/>
+      <c r="AB10" s="51"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="1"/>
     </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="51">
+        <v>3795623</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="15">
+        <v>17</v>
+      </c>
+      <c r="V11" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W11" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X11" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y11" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z11" s="68">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="68">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W12" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X12" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W13" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X13" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="51">
+        <v>3795623</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W19" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X19" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W20" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X20" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W21" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X21" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="51">
+        <v>3795623</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W27" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X27" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W28" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X28" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="46">
+        <v>123566534</v>
+      </c>
+      <c r="W29" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X29" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15">
+        <v>130245</v>
+      </c>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="28">
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="D3:D10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="AB3:AB10"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="AB11:AB18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="AB19:AB26"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="I11:I18"/>
+    <mergeCell ref="Y11:Y18"/>
+    <mergeCell ref="Z11:Z18"/>
+    <mergeCell ref="AA11:AA18"/>
+    <mergeCell ref="AB27:AB34"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="I27:I34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
     <hyperlink ref="AC4" r:id="rId2"/>
     <hyperlink ref="AC5" r:id="rId3"/>
+    <hyperlink ref="AC11" r:id="rId4"/>
+    <hyperlink ref="AC12" r:id="rId5"/>
+    <hyperlink ref="AC13" r:id="rId6"/>
+    <hyperlink ref="AC19" r:id="rId7"/>
+    <hyperlink ref="AC20" r:id="rId8"/>
+    <hyperlink ref="AC21" r:id="rId9"/>
+    <hyperlink ref="AC27" r:id="rId10"/>
+    <hyperlink ref="AC28" r:id="rId11"/>
+    <hyperlink ref="AC29" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+    </row>
+    <row r="2" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="48">
+        <v>3795623</v>
+      </c>
+      <c r="E3" s="49">
+        <v>269696</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="48">
+        <v>123566534</v>
+      </c>
+      <c r="W3" s="15">
+        <v>4534534534</v>
+      </c>
+      <c r="X3" s="15">
+        <v>166152</v>
+      </c>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AF1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AC3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
